--- a/teaching/traditional_assets/database/data/pakistan/pakistan_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ16"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09</v>
+        <v>0.00756</v>
       </c>
       <c r="E2">
-        <v>-0.04150000000000001</v>
+        <v>-0.0988</v>
       </c>
       <c r="G2">
-        <v>0.005407775504238527</v>
+        <v>0.00360788037028246</v>
       </c>
       <c r="H2">
-        <v>0.005407775504238527</v>
+        <v>0.00360788037028246</v>
       </c>
       <c r="I2">
-        <v>0.006123951591011094</v>
+        <v>0.003832192573051296</v>
       </c>
       <c r="J2">
-        <v>0.005209688306234025</v>
+        <v>0.003120410704757009</v>
       </c>
       <c r="K2">
-        <v>-5.112</v>
+        <v>45.027</v>
       </c>
       <c r="L2">
-        <v>-0.06226249634609764</v>
+        <v>0.3053609575802788</v>
       </c>
       <c r="M2">
-        <v>15.262</v>
+        <v>6.438599999999999</v>
       </c>
       <c r="N2">
-        <v>0.0687926799035406</v>
+        <v>0.01667011878747708</v>
       </c>
       <c r="O2">
-        <v>-2.985524256651017</v>
+        <v>0.1429942034779132</v>
       </c>
       <c r="P2">
-        <v>5.941999999999999</v>
+        <v>3.968599999999999</v>
       </c>
       <c r="Q2">
-        <v>0.02678325933605282</v>
+        <v>0.01027506498617426</v>
       </c>
       <c r="R2">
-        <v>-1.162363067292645</v>
+        <v>0.08813822817420658</v>
       </c>
       <c r="S2">
-        <v>9.319999999999999</v>
+        <v>2.47</v>
       </c>
       <c r="T2">
-        <v>0.6106670161184641</v>
+        <v>0.3836237691423602</v>
       </c>
       <c r="U2">
-        <v>171.327</v>
+        <v>245.457</v>
       </c>
       <c r="V2">
-        <v>0.7722476392238173</v>
+        <v>0.6355104133224246</v>
       </c>
       <c r="W2">
-        <v>-0.01845773742567893</v>
+        <v>0.07089920060159227</v>
       </c>
       <c r="X2">
-        <v>0.08740020238907734</v>
+        <v>0.06022769773289876</v>
       </c>
       <c r="Y2">
-        <v>-0.1058579398147563</v>
+        <v>0.01067150286869351</v>
       </c>
       <c r="Z2">
-        <v>0.08539681623046579</v>
+        <v>0.1728686602663553</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.08060421252277097</v>
+        <v>0.05956564429693444</v>
       </c>
       <c r="AC2">
-        <v>-0.08060421252277097</v>
+        <v>-0.05868792989463138</v>
       </c>
       <c r="AD2">
-        <v>671.225</v>
+        <v>395.504</v>
       </c>
       <c r="AE2">
-        <v>0.04099539285812602</v>
+        <v>0.02462022070360595</v>
       </c>
       <c r="AF2">
-        <v>671.2659953928581</v>
+        <v>395.5286202207036</v>
       </c>
       <c r="AG2">
-        <v>499.9389953928581</v>
+        <v>150.0716202207036</v>
       </c>
       <c r="AH2">
-        <v>0.7515958071253129</v>
+        <v>0.5059433619662145</v>
       </c>
       <c r="AI2">
-        <v>0.6260951140817138</v>
+        <v>0.4518717803848804</v>
       </c>
       <c r="AJ2">
-        <v>0.692633907436084</v>
+        <v>0.2798237700947555</v>
       </c>
       <c r="AK2">
-        <v>0.5549821251190465</v>
+        <v>0.2382639031338976</v>
       </c>
       <c r="AL2">
-        <v>0.362</v>
+        <v>0.357</v>
       </c>
       <c r="AM2">
-        <v>0.324</v>
+        <v>0.321</v>
       </c>
       <c r="AN2">
-        <v>1283.413001912046</v>
+        <v>659.1733333333333</v>
       </c>
       <c r="AO2">
-        <v>1.359116022099448</v>
+        <v>1.549019607843137</v>
       </c>
       <c r="AP2">
-        <v>955.9063009423674</v>
+        <v>250.119367034506</v>
       </c>
       <c r="AQ2">
-        <v>1.518518518518518</v>
+        <v>1.722741433021807</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.145</v>
+        <v>0.169</v>
       </c>
       <c r="E3">
-        <v>0.253</v>
+        <v>0.07480000000000001</v>
       </c>
       <c r="G3">
-        <v>0.5668316831683168</v>
+        <v>0.5857740585774059</v>
       </c>
       <c r="H3">
-        <v>0.5668316831683168</v>
+        <v>0.5857740585774059</v>
       </c>
       <c r="I3">
-        <v>0.6274752475247525</v>
+        <v>0.5910041841004183</v>
       </c>
       <c r="J3">
-        <v>0.3887014807675458</v>
+        <v>0.4665822506055934</v>
       </c>
       <c r="K3">
-        <v>0.07099999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="L3">
-        <v>0.08787128712871285</v>
+        <v>0.1882845188284519</v>
       </c>
       <c r="M3">
-        <v>0.13</v>
+        <v>0.073</v>
       </c>
       <c r="N3">
-        <v>0.07738095238095238</v>
+        <v>0.02796934865900383</v>
       </c>
       <c r="O3">
-        <v>1.830985915492958</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="P3">
-        <v>0.13</v>
+        <v>0.073</v>
       </c>
       <c r="Q3">
-        <v>0.07738095238095238</v>
+        <v>0.02796934865900383</v>
       </c>
       <c r="R3">
-        <v>1.830985915492958</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.499</v>
+        <v>0.303</v>
       </c>
       <c r="V3">
-        <v>0.2970238095238095</v>
+        <v>0.1160919540229885</v>
       </c>
       <c r="W3">
-        <v>0.01205432937181664</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="X3">
-        <v>0.1159835693714354</v>
+        <v>0.1167262685696003</v>
       </c>
       <c r="Y3">
-        <v>-0.1039292399996188</v>
+        <v>-0.07776522960856135</v>
       </c>
       <c r="Z3">
-        <v>0.09829683698296839</v>
+        <v>0.1517219488970004</v>
       </c>
       <c r="AA3">
-        <v>0.03820812609004588</v>
+        <v>0.07079076838262931</v>
       </c>
       <c r="AB3">
-        <v>0.09044213492152384</v>
+        <v>0.0764337581532957</v>
       </c>
       <c r="AC3">
-        <v>-0.05223400883147796</v>
+        <v>-0.005642989770666393</v>
       </c>
       <c r="AD3">
-        <v>2.18</v>
+        <v>5.37</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.18</v>
+        <v>5.37</v>
       </c>
       <c r="AG3">
-        <v>1.681</v>
+        <v>5.067</v>
       </c>
       <c r="AH3">
-        <v>0.5647668393782384</v>
+        <v>0.6729323308270676</v>
       </c>
       <c r="AI3">
-        <v>0.3205882352941176</v>
+        <v>0.5479591836734694</v>
       </c>
       <c r="AJ3">
-        <v>0.500148765248438</v>
+        <v>0.6600234466588512</v>
       </c>
       <c r="AK3">
-        <v>0.2667830503094747</v>
+        <v>0.5335369063914921</v>
       </c>
       <c r="AL3">
-        <v>0.362</v>
+        <v>0.357</v>
       </c>
       <c r="AM3">
-        <v>0.362</v>
+        <v>0.357</v>
       </c>
       <c r="AN3">
-        <v>4.208494208494209</v>
+        <v>9.16382252559727</v>
       </c>
       <c r="AO3">
-        <v>1.400552486187845</v>
+        <v>1.582633053221288</v>
       </c>
       <c r="AP3">
-        <v>3.245173745173745</v>
+        <v>8.646757679180888</v>
       </c>
       <c r="AQ3">
-        <v>1.400552486187845</v>
+        <v>1.582633053221288</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dawood Equities Limited (KASE:DEL)</t>
+          <t>First Al-Noor Modaraba (KASE:FANM)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,25 +859,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.00503</v>
+        <v>0.397</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-0.04901960784313726</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-0.04901960784313726</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01960784313725491</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01960784313725491</v>
       </c>
       <c r="K4">
-        <v>-0.033</v>
+        <v>0.014</v>
       </c>
       <c r="L4">
-        <v>-0.351063829787234</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -886,7 +886,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -895,37 +895,37 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.068</v>
+        <v>0.163</v>
       </c>
       <c r="V4">
-        <v>0.1007407407407407</v>
+        <v>0.4147582697201018</v>
       </c>
       <c r="W4">
-        <v>-0.01683673469387755</v>
+        <v>0.008974358974358974</v>
       </c>
       <c r="X4">
-        <v>0.0699162808933286</v>
+        <v>0.05526058699559984</v>
       </c>
       <c r="Y4">
-        <v>-0.08675301558720616</v>
+        <v>-0.04628622802124087</v>
       </c>
       <c r="Z4">
-        <v>0.04936974789915967</v>
+        <v>0.1536144578313253</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="AB4">
-        <v>0.0699162808933286</v>
+        <v>0.05526058699559984</v>
       </c>
       <c r="AC4">
-        <v>-0.0699162808933286</v>
+        <v>-0.05224853880282875</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-0.068</v>
+        <v>-0.163</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -946,16 +946,25 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.1120263591433279</v>
+        <v>-0.7086956521739131</v>
       </c>
       <c r="AK4">
-        <v>-0.0522273425499232</v>
+        <v>-0.1201179071481209</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-0.017</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>-13.58333333333333</v>
+      </c>
+      <c r="AQ4">
+        <v>-0.2352941176470588</v>
       </c>
     </row>
     <row r="5">
@@ -966,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Trust Securities &amp; Brokerage Limited (KASE:TSBL)</t>
+          <t>Dawood Equities Limited (KASE:DEL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -975,7 +984,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.345</v>
+        <v>0.254</v>
+      </c>
+      <c r="E5">
+        <v>-0.132</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -990,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>-0.125</v>
+        <v>0.145</v>
       </c>
       <c r="L5">
-        <v>-0.6377551020408163</v>
+        <v>0.327313769751693</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1002,7 +1014,7 @@
         <v>-0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1011,37 +1023,37 @@
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.581</v>
+        <v>0.04</v>
       </c>
       <c r="V5">
-        <v>0.3339080459770115</v>
+        <v>0.04268943436499466</v>
       </c>
       <c r="W5">
-        <v>-0.08223684210526316</v>
+        <v>0.1058394160583941</v>
       </c>
       <c r="X5">
-        <v>0.0699162808933286</v>
+        <v>0.05526058699559984</v>
       </c>
       <c r="Y5">
-        <v>-0.1521531229985918</v>
+        <v>0.0505788290627943</v>
       </c>
       <c r="Z5">
-        <v>0.1610517666392769</v>
+        <v>0.3402457757296467</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0699162808933286</v>
+        <v>0.05526058699559984</v>
       </c>
       <c r="AC5">
-        <v>-0.0699162808933286</v>
+        <v>-0.05526058699559984</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1053,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-0.581</v>
+        <v>-0.04</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1062,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.5012942191544434</v>
+        <v>-0.04459308807134894</v>
       </c>
       <c r="AK5">
-        <v>-1.164328657314629</v>
+        <v>-0.02666666666666667</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1082,7 +1094,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIPL Securities Limited (KASE:BIPLS)</t>
+          <t>B.F. Modaraba (KASE:BFMOD)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1091,7 +1103,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.155</v>
+        <v>-0.0741</v>
+      </c>
+      <c r="E6">
+        <v>-0.188</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1100,16 +1115,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.006316328320687015</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.006316328320687015</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-0.153</v>
+        <v>0.023</v>
       </c>
       <c r="L6">
-        <v>-0.08947368421052632</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1118,7 +1133,7 @@
         <v>-0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P6">
         <v>-0</v>
@@ -1127,73 +1142,67 @@
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="U6">
-        <v>2.47</v>
+        <v>0.115</v>
       </c>
       <c r="V6">
-        <v>0.4669187145557656</v>
+        <v>0.3885135135135135</v>
       </c>
       <c r="W6">
-        <v>-0.02007874015748031</v>
+        <v>0.029449423815621</v>
       </c>
       <c r="X6">
-        <v>0.07750643515103697</v>
+        <v>0.05526058699559984</v>
       </c>
       <c r="Y6">
-        <v>-0.09758517530851729</v>
+        <v>-0.02581116317997884</v>
       </c>
       <c r="Z6">
-        <v>0.340569920146174</v>
+        <v>0.1203252032520325</v>
       </c>
       <c r="AA6">
-        <v>0.002151151431793394</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.07524521643601378</v>
+        <v>0.05526058699559984</v>
       </c>
       <c r="AC6">
-        <v>-0.07309406500422039</v>
+        <v>-0.05526058699559984</v>
       </c>
       <c r="AD6">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.04099539285812602</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.130995392858126</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>-1.339004607141874</v>
+        <v>-0.115</v>
       </c>
       <c r="AH6">
-        <v>0.1761401969102948</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.2044831558381912</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.3389031051674415</v>
+        <v>-0.6353591160220995</v>
       </c>
       <c r="AK6">
-        <v>-0.4374409090147676</v>
+        <v>-0.1673944687045124</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>57.36842105263158</v>
-      </c>
-      <c r="AP6">
-        <v>-70.47392669167759</v>
       </c>
     </row>
     <row r="7">
@@ -1213,10 +1222,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0423</v>
+        <v>0.00491</v>
       </c>
       <c r="E7">
-        <v>-0.419</v>
+        <v>-0.103</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1231,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.07000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="L7">
-        <v>0.02302631578947369</v>
+        <v>0.2584541062801933</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>2.47</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.1563291139240506</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>2.308411214953271</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1255,58 +1264,61 @@
         <v>-0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>2.47</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>14.5</v>
+        <v>11.9</v>
       </c>
       <c r="V7">
-        <v>0.9931506849315068</v>
+        <v>0.7531645569620253</v>
       </c>
       <c r="W7">
-        <v>0.003317535545023697</v>
+        <v>0.06445783132530121</v>
       </c>
       <c r="X7">
-        <v>0.07424453335860857</v>
+        <v>0.05559714648391571</v>
       </c>
       <c r="Y7">
-        <v>-0.07092699781358487</v>
+        <v>0.008860684841385497</v>
       </c>
       <c r="Z7">
-        <v>0.2228739002932551</v>
+        <v>1.06701030927835</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.07320394995318354</v>
+        <v>0.0555808381838519</v>
       </c>
       <c r="AC7">
-        <v>-0.07320394995318354</v>
+        <v>-0.0555808381838519</v>
       </c>
       <c r="AD7">
-        <v>1.78</v>
+        <v>0.178</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.78</v>
+        <v>0.178</v>
       </c>
       <c r="AG7">
-        <v>-12.72</v>
+        <v>-11.722</v>
       </c>
       <c r="AH7">
-        <v>0.1086691086691087</v>
+        <v>0.0111403179371636</v>
       </c>
       <c r="AI7">
-        <v>0.09684439608269857</v>
+        <v>0.01221017972287008</v>
       </c>
       <c r="AJ7">
-        <v>-6.765957446808515</v>
+        <v>-2.874448258950465</v>
       </c>
       <c r="AK7">
-        <v>-3.278350515463917</v>
+        <v>-4.377147124719939</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1323,7 +1335,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Escorts Investment Bank Limited (KASE:ESBL)</t>
+          <t>Trust Securities &amp; Brokerage Limited (KASE:TSBL)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1332,7 +1344,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.07400000000000001</v>
+        <v>0.948</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1347,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>-0.131</v>
+        <v>0.379</v>
       </c>
       <c r="L8">
-        <v>-0.238615664845173</v>
+        <v>0.3542056074766355</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1359,7 +1371,7 @@
         <v>-0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P8">
         <v>-0</v>
@@ -1368,61 +1380,61 @@
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>2.11</v>
+        <v>0.412</v>
       </c>
       <c r="V8">
-        <v>0.2318681318681319</v>
+        <v>0.2102040816326531</v>
       </c>
       <c r="W8">
-        <v>-0.2399267399267399</v>
+        <v>0.3509259259259259</v>
       </c>
       <c r="X8">
-        <v>0.07498790898266147</v>
+        <v>0.05730301920341449</v>
       </c>
       <c r="Y8">
-        <v>-0.3149146489094014</v>
+        <v>0.2936229067225115</v>
       </c>
       <c r="Z8">
-        <v>0.1984815618221258</v>
+        <v>2.144288577154308</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.07369802381470668</v>
+        <v>0.05727404527422754</v>
       </c>
       <c r="AC8">
-        <v>-0.07369802381470668</v>
+        <v>-0.05727404527422754</v>
       </c>
       <c r="AD8">
-        <v>1.3</v>
+        <v>0.134</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>1.3</v>
+        <v>0.134</v>
       </c>
       <c r="AG8">
-        <v>-0.8099999999999998</v>
+        <v>-0.278</v>
       </c>
       <c r="AH8">
-        <v>0.125</v>
+        <v>0.06399235912129896</v>
       </c>
       <c r="AI8">
-        <v>0.1763907734056988</v>
+        <v>0.08735332464146026</v>
       </c>
       <c r="AJ8">
-        <v>-0.09770808202653798</v>
+        <v>-0.1652794292508918</v>
       </c>
       <c r="AK8">
-        <v>-0.1539923954372623</v>
+        <v>-0.2477718360071301</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1439,7 +1451,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Security Investment Bank Limited (KASE:SIBL)</t>
+          <t>BIPL Securities Limited (KASE:BIPLS)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1448,10 +1460,7 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.106</v>
-      </c>
-      <c r="E9">
-        <v>0.91</v>
+        <v>0.00756</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1460,16 +1469,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004574225704272276</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.002930672745594358</v>
       </c>
       <c r="K9">
-        <v>0.194</v>
+        <v>0.445</v>
       </c>
       <c r="L9">
-        <v>0.4136460554371003</v>
+        <v>0.168560606060606</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1493,61 +1502,67 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.092</v>
+        <v>5.59</v>
       </c>
       <c r="V9">
-        <v>0.0336996336996337</v>
+        <v>0.8136826783114992</v>
       </c>
       <c r="W9">
-        <v>0.03055118110236221</v>
+        <v>0.1011363636363636</v>
       </c>
       <c r="X9">
-        <v>0.08487108166956651</v>
+        <v>0.06097724872236618</v>
       </c>
       <c r="Y9">
-        <v>-0.05431990056720431</v>
+        <v>0.04015911491399746</v>
       </c>
       <c r="Z9">
-        <v>0.07850686307331771</v>
+        <v>0.8671032209691825</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.002541195777311466</v>
       </c>
       <c r="AB9">
-        <v>0.07888330019144155</v>
+        <v>0.06031436649861086</v>
       </c>
       <c r="AC9">
-        <v>-0.07888330019144155</v>
+        <v>-0.05777317072129939</v>
       </c>
       <c r="AD9">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.02462022070360595</v>
       </c>
       <c r="AF9">
-        <v>1.15</v>
+        <v>1.314620220703606</v>
       </c>
       <c r="AG9">
-        <v>1.058</v>
+        <v>-4.275379779296394</v>
       </c>
       <c r="AH9">
-        <v>0.2963917525773196</v>
+        <v>0.1606207967204362</v>
       </c>
       <c r="AI9">
-        <v>0.2272727272727272</v>
+        <v>0.2189347822816281</v>
       </c>
       <c r="AJ9">
-        <v>0.2793030623020063</v>
+        <v>-1.647786348530422</v>
       </c>
       <c r="AK9">
-        <v>0.2129629629629629</v>
+        <v>-10.31155637330257</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
         <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>75.88235294117646</v>
+      </c>
+      <c r="AP9">
+        <v>-251.4929281939055</v>
       </c>
     </row>
     <row r="10">
@@ -1558,7 +1573,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Invest Capital Investment Bank Limited (KASE:ICIBL)</t>
+          <t>First National Equities Limited (KASE:FNEL)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1567,7 +1582,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.288</v>
+        <v>-0.133</v>
+      </c>
+      <c r="E10">
+        <v>-0.0946</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1582,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>-0.663</v>
+        <v>0.88</v>
       </c>
       <c r="L10">
-        <v>-1.483221476510067</v>
+        <v>1.900647948164147</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1594,7 +1612,7 @@
         <v>-0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1603,61 +1621,61 @@
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.125</v>
+        <v>1.26</v>
       </c>
       <c r="V10">
-        <v>0.08278145695364239</v>
+        <v>0.05526315789473684</v>
       </c>
       <c r="W10">
-        <v>-0.3172248803827751</v>
+        <v>0.1585585585585586</v>
       </c>
       <c r="X10">
-        <v>0.09460268252021371</v>
+        <v>0.05875903430835701</v>
       </c>
       <c r="Y10">
-        <v>-0.4118275629029888</v>
+        <v>0.09979952425020157</v>
       </c>
       <c r="Z10">
-        <v>0.1018687329079307</v>
+        <v>0.06484593837535013</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.0823251248541004</v>
+        <v>0.05855893769400474</v>
       </c>
       <c r="AC10">
-        <v>-0.0823251248541004</v>
+        <v>-0.05855893769400474</v>
       </c>
       <c r="AD10">
-        <v>1.05</v>
+        <v>2.67</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>1.05</v>
+        <v>2.67</v>
       </c>
       <c r="AG10">
-        <v>0.925</v>
+        <v>1.41</v>
       </c>
       <c r="AH10">
-        <v>0.41015625</v>
+        <v>0.104829210836278</v>
       </c>
       <c r="AI10">
-        <v>0.3697183098591549</v>
+        <v>0.3051428571428572</v>
       </c>
       <c r="AJ10">
-        <v>0.3798767967145791</v>
+        <v>0.05824039653035935</v>
       </c>
       <c r="AK10">
-        <v>0.3406998158379374</v>
+        <v>0.1882510013351135</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1674,7 +1692,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arif Habib Limited (KASE:AHL)</t>
+          <t>Escorts Investment Bank Limited (KASE:ESBL)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1682,32 +1700,35 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D11">
+        <v>0.0295</v>
+      </c>
       <c r="G11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>-2.54</v>
+        <v>-0.301</v>
       </c>
       <c r="L11">
-        <v>0.8300653594771242</v>
+        <v>-0.4163208852005533</v>
       </c>
       <c r="M11">
-        <v>1.48</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.06788990825688074</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>-0.5826771653543307</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1719,61 +1740,58 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>1.48</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>3.23</v>
+        <v>0.666</v>
       </c>
       <c r="V11">
-        <v>0.1481651376146789</v>
+        <v>0.0783529411764706</v>
       </c>
       <c r="W11">
-        <v>-0.09921874999999999</v>
+        <v>-0.04958813838550247</v>
       </c>
       <c r="X11">
-        <v>0.1006950146648303</v>
+        <v>0.05947814674343134</v>
       </c>
       <c r="Y11">
-        <v>-0.1999137646648303</v>
+        <v>-0.1090662851289338</v>
       </c>
       <c r="Z11">
-        <v>-0.09180918091809182</v>
+        <v>0.1374524714828897</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.08273017597225649</v>
+        <v>0.05881692209525802</v>
       </c>
       <c r="AC11">
-        <v>-0.08273017597225649</v>
+        <v>-0.05881692209525802</v>
       </c>
       <c r="AD11">
-        <v>18.9</v>
+        <v>1.2</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>18.9</v>
+        <v>1.2</v>
       </c>
       <c r="AG11">
-        <v>15.67</v>
+        <v>0.5339999999999999</v>
       </c>
       <c r="AH11">
-        <v>0.4643734643734643</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="AI11">
-        <v>0.5384615384615385</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="AJ11">
-        <v>0.4182012276487856</v>
+        <v>0.05911002878016381</v>
       </c>
       <c r="AK11">
-        <v>0.4916849701914026</v>
+        <v>0.08998988877654195</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1790,7 +1808,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EFG Hermes Pakistan Limited (KASE:EFGH)</t>
+          <t>Arif Habib Limited (KASE:AHL)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1798,6 +1816,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D12">
+        <v>0.00501</v>
+      </c>
+      <c r="E12">
+        <v>0.0112</v>
+      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -1811,91 +1835,91 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>-0.471</v>
+        <v>6.04</v>
       </c>
       <c r="L12">
-        <v>-0.7405660377358491</v>
+        <v>0.7294685990338164</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>0.004</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.0001526717557251908</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.0006622516556291391</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>0.004</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.0001526717557251908</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.0006622516556291391</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
       <c r="U12">
-        <v>0.138</v>
+        <v>6.88</v>
       </c>
       <c r="V12">
-        <v>0.04169184290030212</v>
+        <v>0.2625954198473283</v>
       </c>
       <c r="W12">
-        <v>-0.2889570552147239</v>
+        <v>0.3728395061728395</v>
       </c>
       <c r="X12">
-        <v>0.09565747482106034</v>
+        <v>0.06404046248846157</v>
       </c>
       <c r="Y12">
-        <v>-0.3846145300357843</v>
+        <v>0.3087990436843779</v>
       </c>
       <c r="Z12">
-        <v>0.1545189504373178</v>
+        <v>0.2598054596799498</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.08519219404402195</v>
+        <v>0.06179015112031642</v>
       </c>
       <c r="AC12">
-        <v>-0.08519219404402195</v>
+        <v>-0.06179015112031642</v>
       </c>
       <c r="AD12">
-        <v>2.4</v>
+        <v>7.7</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>2.4</v>
+        <v>7.7</v>
       </c>
       <c r="AG12">
-        <v>2.262</v>
+        <v>0.8200000000000003</v>
       </c>
       <c r="AH12">
-        <v>0.4203152364273205</v>
+        <v>0.2271386430678466</v>
       </c>
       <c r="AI12">
-        <v>0.7650621613006057</v>
+        <v>0.2566666666666667</v>
       </c>
       <c r="AJ12">
-        <v>0.4059583632447954</v>
+        <v>0.03034789045151741</v>
       </c>
       <c r="AK12">
-        <v>0.7542514171390463</v>
+        <v>0.03546712802768167</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>-0.038</v>
-      </c>
-      <c r="AQ12">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1906,7 +1930,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Arif Habib Corporation Limited (KASE:AHCL)</t>
+          <t>Invest Capital Investment Bank Limited (KASE:ICIBL)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1915,10 +1939,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.0266</v>
-      </c>
-      <c r="E13">
-        <v>-0.336</v>
+        <v>-0.0221</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1933,85 +1954,82 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.13</v>
+        <v>0.272</v>
       </c>
       <c r="L13">
-        <v>0.2398648648648648</v>
+        <v>2.495412844036697</v>
       </c>
       <c r="M13">
-        <v>13.65</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.1545866364665912</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>6.408450704225352</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>5.81</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.06579841449603624</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>2.727699530516432</v>
+        <v>-0</v>
       </c>
       <c r="S13">
-        <v>7.839999999999999</v>
-      </c>
-      <c r="T13">
-        <v>0.5743589743589743</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>5</v>
+        <v>0.638</v>
       </c>
       <c r="V13">
-        <v>0.05662514156285391</v>
+        <v>0.1701333333333333</v>
       </c>
       <c r="W13">
-        <v>0.01210915292779989</v>
+        <v>0.1519553072625698</v>
       </c>
       <c r="X13">
-        <v>0.1162731442104356</v>
+        <v>0.06450172902084844</v>
       </c>
       <c r="Y13">
-        <v>-0.1041639912826357</v>
+        <v>0.0874535782417214</v>
       </c>
       <c r="Z13">
-        <v>0.03265546280292723</v>
+        <v>0.04014732965009208</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.08554290992416914</v>
+        <v>0.06437480670730281</v>
       </c>
       <c r="AC13">
-        <v>-0.08554290992416914</v>
+        <v>-0.06437480670730281</v>
       </c>
       <c r="AD13">
-        <v>115.3</v>
+        <v>1.16</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>115.3</v>
+        <v>1.16</v>
       </c>
       <c r="AG13">
-        <v>110.3</v>
+        <v>0.5219999999999999</v>
       </c>
       <c r="AH13">
-        <v>0.5663064833005894</v>
+        <v>0.2362525458248472</v>
       </c>
       <c r="AI13">
-        <v>0.4448302469135803</v>
+        <v>0.380327868852459</v>
       </c>
       <c r="AJ13">
-        <v>0.5553877139979859</v>
+        <v>0.122191011235955</v>
       </c>
       <c r="AK13">
-        <v>0.4339103068450039</v>
+        <v>0.2164179104477612</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2028,7 +2046,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pervez Ahmed Securities Limited (KASE:PASL)</t>
+          <t>Pervez Ahmed Consultancy Services Limited (KASE:PASL)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2037,7 +2055,7 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.229</v>
+        <v>-0.366</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2052,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>-0.11</v>
+        <v>0.027</v>
       </c>
       <c r="L14">
-        <v>-36.66666666666666</v>
+        <v>4.5</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2064,7 +2082,7 @@
         <v>-0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P14">
         <v>-0</v>
@@ -2073,61 +2091,61 @@
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0.012</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="V14">
-        <v>0.01176470588235294</v>
+        <v>0.007627118644067796</v>
       </c>
       <c r="W14">
-        <v>0.02511415525114155</v>
+        <v>-0.007541899441340782</v>
       </c>
       <c r="X14">
-        <v>0.08992932310858817</v>
+        <v>0.06898254868928612</v>
       </c>
       <c r="Y14">
-        <v>-0.06481516785744662</v>
+        <v>-0.07652444813062691</v>
       </c>
       <c r="Z14">
-        <v>-0.0008203445447087777</v>
+        <v>-0.00198873052701359</v>
       </c>
       <c r="AA14">
         <v>-0</v>
       </c>
       <c r="AB14">
-        <v>0.09058886235937194</v>
+        <v>0.06740311562168527</v>
       </c>
       <c r="AC14">
-        <v>-0.09058886235937194</v>
+        <v>-0.06740311562168527</v>
       </c>
       <c r="AD14">
-        <v>0.575</v>
+        <v>0.542</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0.575</v>
+        <v>0.542</v>
       </c>
       <c r="AG14">
-        <v>0.5629999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="AH14">
-        <v>0.3605015673981191</v>
+        <v>0.3147502903600465</v>
       </c>
       <c r="AI14">
-        <v>-0.1913477537437604</v>
+        <v>-0.193019943019943</v>
       </c>
       <c r="AJ14">
-        <v>0.3556538218572331</v>
+        <v>0.3111500291885581</v>
       </c>
       <c r="AK14">
-        <v>-0.1866092144514418</v>
+        <v>-0.1892083777067803</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2144,7 +2162,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jahangir Siddiqui &amp; Co. Ltd. (KASE:JSCL)</t>
+          <t>Arif Habib Corporation Limited (KASE:AHCL)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2153,7 +2171,10 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.113</v>
+        <v>0.19</v>
+      </c>
+      <c r="E15">
+        <v>-0.0113</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2168,82 +2189,85 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>-3.33</v>
+        <v>28.6</v>
       </c>
       <c r="L15">
-        <v>-0.04875549048316252</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>3.675599999999999</v>
       </c>
       <c r="N15">
-        <v>-0</v>
+        <v>0.03596477495107631</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1285174825174825</v>
       </c>
       <c r="P15">
-        <v>-0</v>
+        <v>3.675599999999999</v>
       </c>
       <c r="Q15">
-        <v>-0</v>
+        <v>0.03596477495107631</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.1285174825174825</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
       <c r="U15">
-        <v>142.5</v>
+        <v>8.42</v>
       </c>
       <c r="V15">
-        <v>2.107988165680474</v>
+        <v>0.08238747553816046</v>
       </c>
       <c r="W15">
-        <v>-0.01369243421052632</v>
+        <v>0.2143928035982009</v>
       </c>
       <c r="X15">
-        <v>0.3458923744822477</v>
+        <v>0.07785637656109802</v>
       </c>
       <c r="Y15">
-        <v>-0.359584808692774</v>
+        <v>0.1365364270371029</v>
       </c>
       <c r="Z15">
-        <v>0.1115466274701944</v>
+        <v>0.1526043637280868</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.09672195825207661</v>
+        <v>0.06764023240448891</v>
       </c>
       <c r="AC15">
-        <v>-0.09672195825207661</v>
+        <v>-0.06764023240448891</v>
       </c>
       <c r="AD15">
-        <v>525.5</v>
+        <v>77.3</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>525.5</v>
+        <v>77.3</v>
       </c>
       <c r="AG15">
-        <v>383</v>
+        <v>68.88</v>
       </c>
       <c r="AH15">
-        <v>0.8860225931546113</v>
+        <v>0.4306406685236769</v>
       </c>
       <c r="AI15">
-        <v>0.7207516115759155</v>
+        <v>0.3130822195220737</v>
       </c>
       <c r="AJ15">
-        <v>0.8499778073679538</v>
+        <v>0.4026186579378069</v>
       </c>
       <c r="AK15">
-        <v>0.6529151039890897</v>
+        <v>0.2888292519288829</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -2260,121 +2284,356 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>EFG Hermes Pakistan Limited (KASE:EFGH)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0.057</v>
+      </c>
+      <c r="L16">
+        <v>0.05533980582524272</v>
+      </c>
+      <c r="M16">
+        <v>-0</v>
+      </c>
+      <c r="N16">
+        <v>-0</v>
+      </c>
+      <c r="O16">
+        <v>-0</v>
+      </c>
+      <c r="P16">
+        <v>-0</v>
+      </c>
+      <c r="Q16">
+        <v>-0</v>
+      </c>
+      <c r="R16">
+        <v>-0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0.96</v>
+      </c>
+      <c r="V16">
+        <v>0.3404255319148936</v>
+      </c>
+      <c r="W16">
+        <v>0.07734056987788332</v>
+      </c>
+      <c r="X16">
+        <v>0.07920246724259848</v>
+      </c>
+      <c r="Y16">
+        <v>-0.001861897364715162</v>
+      </c>
+      <c r="Z16">
+        <v>0.3434478159386462</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0.06925836948488903</v>
+      </c>
+      <c r="AC16">
+        <v>-0.06925836948488903</v>
+      </c>
+      <c r="AD16">
+        <v>2.26</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>2.26</v>
+      </c>
+      <c r="AG16">
+        <v>1.3</v>
+      </c>
+      <c r="AH16">
+        <v>0.4448818897637795</v>
+      </c>
+      <c r="AI16">
+        <v>0.7316283586921334</v>
+      </c>
+      <c r="AJ16">
+        <v>0.3155339805825243</v>
+      </c>
+      <c r="AK16">
+        <v>0.6106153123532175</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>-0.019</v>
+      </c>
+      <c r="AQ16">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jahangir Siddiqui &amp; Co. Ltd. (KASE:JSCL)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.0165</v>
+      </c>
+      <c r="E17">
+        <v>-0.219</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>7.21</v>
+      </c>
+      <c r="L17">
+        <v>0.07923076923076923</v>
+      </c>
+      <c r="M17">
+        <v>0.216</v>
+      </c>
+      <c r="N17">
+        <v>0.001155080213903743</v>
+      </c>
+      <c r="O17">
+        <v>0.02995839112343967</v>
+      </c>
+      <c r="P17">
+        <v>0.216</v>
+      </c>
+      <c r="Q17">
+        <v>0.001155080213903743</v>
+      </c>
+      <c r="R17">
+        <v>0.02995839112343967</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>208.1</v>
+      </c>
+      <c r="V17">
+        <v>1.11283422459893</v>
+      </c>
+      <c r="W17">
+        <v>0.04291666666666667</v>
+      </c>
+      <c r="X17">
+        <v>0.1025004512923339</v>
+      </c>
+      <c r="Y17">
+        <v>-0.05958378462566721</v>
+      </c>
+      <c r="Z17">
+        <v>0.1651542649727768</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0.07287090465839693</v>
+      </c>
+      <c r="AC17">
+        <v>-0.07287090465839693</v>
+      </c>
+      <c r="AD17">
+        <v>295.7</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>295.7</v>
+      </c>
+      <c r="AG17">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="AH17">
+        <v>0.6125958152061322</v>
+      </c>
+      <c r="AI17">
+        <v>0.5437660904744391</v>
+      </c>
+      <c r="AJ17">
+        <v>0.3190094683175528</v>
+      </c>
+      <c r="AK17">
+        <v>0.2609472743521001</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>AKD Capital Limited (KASE:AKDCL)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D16">
-        <v>0.0361</v>
-      </c>
-      <c r="G16">
-        <v>-0.4375</v>
-      </c>
-      <c r="H16">
-        <v>-0.4375</v>
-      </c>
-      <c r="I16">
-        <v>-0.46875</v>
-      </c>
-      <c r="J16">
-        <v>-0.46875</v>
-      </c>
-      <c r="K16">
-        <v>-0.021</v>
-      </c>
-      <c r="L16">
-        <v>-0.65625</v>
-      </c>
-      <c r="M16">
-        <v>0.002</v>
-      </c>
-      <c r="N16">
-        <v>0.0008</v>
-      </c>
-      <c r="O16">
-        <v>-0.09523809523809523</v>
-      </c>
-      <c r="P16">
-        <v>0.002</v>
-      </c>
-      <c r="Q16">
-        <v>0.0008</v>
-      </c>
-      <c r="R16">
-        <v>-0.09523809523809523</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0.002</v>
-      </c>
-      <c r="V16">
-        <v>0.0008</v>
-      </c>
-      <c r="W16">
-        <v>-0.06481481481481481</v>
-      </c>
-      <c r="X16">
-        <v>0.0699162808933286</v>
-      </c>
-      <c r="Y16">
-        <v>-0.1347310957081434</v>
-      </c>
-      <c r="Z16">
-        <v>0.1095890410958904</v>
-      </c>
-      <c r="AA16">
-        <v>-0.05136986301369862</v>
-      </c>
-      <c r="AB16">
-        <v>0.0699162808933286</v>
-      </c>
-      <c r="AC16">
-        <v>-0.1212861439070272</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>-0.002</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>-0.0008006405124099279</v>
-      </c>
-      <c r="AK16">
-        <v>-0.01098901098901099</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>-0</v>
-      </c>
-      <c r="AP16">
-        <v>0.1428571428571428</v>
+      <c r="D18">
+        <v>-0.194</v>
+      </c>
+      <c r="G18">
+        <v>-1.058823529411764</v>
+      </c>
+      <c r="H18">
+        <v>-1.058823529411764</v>
+      </c>
+      <c r="I18">
+        <v>-0.9411764705882353</v>
+      </c>
+      <c r="J18">
+        <v>-0.9411764705882353</v>
+      </c>
+      <c r="K18">
+        <v>-0.014</v>
+      </c>
+      <c r="L18">
+        <v>-0.8235294117647058</v>
+      </c>
+      <c r="M18">
+        <v>-0</v>
+      </c>
+      <c r="N18">
+        <v>-0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>-0</v>
+      </c>
+      <c r="Q18">
+        <v>-0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0.001</v>
+      </c>
+      <c r="V18">
+        <v>0.0003424657534246575</v>
+      </c>
+      <c r="W18">
+        <v>-0.07608695652173914</v>
+      </c>
+      <c r="X18">
+        <v>0.05526058699559984</v>
+      </c>
+      <c r="Y18">
+        <v>-0.131347543517339</v>
+      </c>
+      <c r="Z18">
+        <v>0.09340659340659342</v>
+      </c>
+      <c r="AA18">
+        <v>-0.08791208791208792</v>
+      </c>
+      <c r="AB18">
+        <v>0.05526058699559984</v>
+      </c>
+      <c r="AC18">
+        <v>-0.1431726749076878</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>-0.001</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>-0.000342583076396026</v>
+      </c>
+      <c r="AK18">
+        <v>-0.006622516556291391</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>-0</v>
+      </c>
+      <c r="AP18">
+        <v>0.06666666666666667</v>
       </c>
     </row>
   </sheetData>
